--- a/Туры.xlsx
+++ b/Туры.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ДЭ задание 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ДЭ задание 2\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E91391-88B2-47B6-A160-873B46F7F35B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78950379-B054-49D9-B37B-8819D8A678CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tour" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="TypeOfTour" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Type!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tour!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Type!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Страна</t>
   </si>
@@ -188,48 +189,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Международный  туризм, Лечебно-оздоровительные туры, Пляжные туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Пляжные туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Экскурсионные туры, Культурно-исторические туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Лечебно-оздоровительные туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Экскурсионные туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры, Пляжные туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Культурно-исторические туры, Пляжные туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Специализированные детские туры, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Специализированные детские туры, Экскурсионные туры, Культурно-исторические туры</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Горнолыжные курорты</t>
-  </si>
-  <si>
-    <t>Международный  туризм, Обслуживание корпоративных клиентов по заказу, Горнолыжные курорты</t>
-  </si>
-  <si>
     <t>TicketCount</t>
   </si>
   <si>
@@ -246,6 +205,48 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Международный туризм</t>
+  </si>
+  <si>
+    <t>Международный туризм, Лечебно-оздоровительные туры, Пляжные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Пляжные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры, Культурно-исторические туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Лечебно-оздоровительные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Специализированные детские туры, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры, Пляжные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Горнолыжные курорты</t>
+  </si>
+  <si>
+    <t>Международный туризм, Специализированные детские туры, Экскурсионные туры, Культурно-исторические туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Культурно-исторические туры, Пляжные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Обслуживание корпоративных клиентов по заказу, Горнолыжные курорты</t>
   </si>
 </sst>
 </file>
@@ -253,7 +254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -312,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -320,7 +321,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,7 +545,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -553,19 +556,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -936,6 +939,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F27" xr:uid="{2650D958-8301-4725-8B6C-F0998C2362CF}">
+    <sortState ref="A2:F27">
+      <sortCondition ref="B1:B27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -946,7 +954,7 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1096,105 +1104,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3A1D4A-7BB9-4FA1-AF53-B119390B3941}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="147.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
+      <c r="A18" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1206,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E4F844-1E9A-4FF4-9017-527FB6BC100E}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1217,10 +1229,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1228,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1236,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1244,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1252,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1260,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1268,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1276,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1284,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1292,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1300,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1308,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1316,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1324,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1332,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1340,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1348,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1356,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1364,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1372,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1380,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1388,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1396,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1404,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1412,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1420,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1428,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Туры.xlsx
+++ b/Туры.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ДЭ задание 2\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78950379-B054-49D9-B37B-8819D8A678CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB180C6A-2945-403C-90D6-08A4A55423EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tour" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tour!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Type!$A$1:$B$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист5!$G$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>Страна</t>
   </si>
@@ -177,63 +178,63 @@
     <t>Финский романтизм</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TicketCount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ImagePreview</t>
+  </si>
+  <si>
+    <t>TourId</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Международный туризм</t>
+  </si>
+  <si>
+    <t>Международный туризм, Лечебно-оздоровительные туры, Пляжные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Пляжные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры, Культурно-исторические туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Лечебно-оздоровительные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Специализированные детские туры, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
+  </si>
+  <si>
     <t>Внутренний туризм, Экскурсионные туры, Культурно-исторические туры</t>
   </si>
   <si>
+    <t>Международный туризм, Экскурсионные туры</t>
+  </si>
+  <si>
+    <t>Международный туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры, Пляжные туры</t>
+  </si>
+  <si>
     <t>Внутренний туризм, Специализированные детские туры</t>
   </si>
   <si>
     <t>Внутренний туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TicketCount</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ImagePreview</t>
-  </si>
-  <si>
-    <t>TourId</t>
-  </si>
-  <si>
-    <t>TypeId</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Международный туризм</t>
-  </si>
-  <si>
-    <t>Международный туризм, Лечебно-оздоровительные туры, Пляжные туры</t>
-  </si>
-  <si>
-    <t>Международный туризм, Пляжные туры</t>
-  </si>
-  <si>
-    <t>Международный туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу</t>
-  </si>
-  <si>
-    <t>Международный туризм, Экскурсионные туры, Культурно-исторические туры</t>
-  </si>
-  <si>
-    <t>Международный туризм, Лечебно-оздоровительные туры</t>
-  </si>
-  <si>
-    <t>Международный туризм, Специализированные детские туры, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
-  </si>
-  <si>
-    <t>Международный туризм, Экскурсионные туры</t>
-  </si>
-  <si>
-    <t>Международный туризм, Экскурсионные туры, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры, Пляжные туры</t>
-  </si>
-  <si>
     <t>Международный туризм, Обслуживание корпоративных клиентов по заказу, Культурно-исторические туры</t>
   </si>
   <si>
@@ -247,16 +248,25 @@
   </si>
   <si>
     <t>Международный туризм, Обслуживание корпоративных клиентов по заказу, Горнолыжные курорты</t>
+  </si>
+  <si>
+    <t>Название тура</t>
+  </si>
+  <si>
+    <t>Количество билетов</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Типы туров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -289,8 +299,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -309,21 +333,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -545,43 +601,44 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>35700</v>
       </c>
       <c r="F2" s="4">
@@ -589,13 +646,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>77100</v>
       </c>
       <c r="F3" s="3">
@@ -603,13 +660,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>93300</v>
       </c>
       <c r="F4" s="3">
@@ -617,13 +674,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>72500</v>
       </c>
       <c r="F5" s="3">
@@ -631,13 +688,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>31900</v>
       </c>
       <c r="F6" s="3">
@@ -645,13 +702,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>74900</v>
       </c>
       <c r="F7" s="3">
@@ -659,13 +716,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>224</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>65100</v>
       </c>
       <c r="F8" s="3">
@@ -673,13 +730,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>283</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>68300</v>
       </c>
       <c r="F9" s="3">
@@ -687,13 +744,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>204</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>55900</v>
       </c>
       <c r="F10" s="3">
@@ -701,13 +758,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>215</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>62200</v>
       </c>
       <c r="F11" s="3">
@@ -715,13 +772,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>53200</v>
       </c>
       <c r="F12" s="3">
@@ -729,13 +786,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>250</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>22500</v>
       </c>
       <c r="F13" s="3">
@@ -743,13 +800,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>30900</v>
       </c>
       <c r="F14" s="3">
@@ -757,13 +814,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>28800</v>
       </c>
       <c r="F15" s="3">
@@ -771,13 +828,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>53700</v>
       </c>
       <c r="F16" s="3">
@@ -785,13 +842,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>101</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>54900</v>
       </c>
       <c r="F17" s="3">
@@ -799,13 +856,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>161</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>49100</v>
       </c>
       <c r="F18" s="3">
@@ -813,13 +870,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>99</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>71400</v>
       </c>
       <c r="F19" s="3">
@@ -827,13 +884,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>62000</v>
       </c>
       <c r="F20" s="3">
@@ -841,13 +898,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>25600</v>
       </c>
       <c r="F21" s="3">
@@ -855,13 +912,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>292</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>27600</v>
       </c>
       <c r="F22" s="3">
@@ -869,13 +926,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>223</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>28700</v>
       </c>
       <c r="F23" s="3">
@@ -883,13 +940,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>286</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>50900</v>
       </c>
       <c r="F24" s="3">
@@ -897,13 +954,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>80900</v>
       </c>
       <c r="F25" s="3">
@@ -911,13 +968,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>70700</v>
       </c>
       <c r="F26" s="3">
@@ -925,13 +982,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>289</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>93600</v>
       </c>
       <c r="F27" s="3">
@@ -939,11 +996,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{2650D958-8301-4725-8B6C-F0998C2362CF}">
-    <sortState ref="A2:F27">
-      <sortCondition ref="B1:B27"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -951,154 +1003,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D81E4C2-4E4D-4EA4-B863-E97957570D4C}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.42578125"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="147.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="13">
+        <v>127</v>
+      </c>
+      <c r="D2" s="13">
+        <v>35700</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="13">
+        <v>92</v>
+      </c>
+      <c r="D3" s="13">
+        <v>77100</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="13">
+        <v>72</v>
+      </c>
+      <c r="D4" s="13">
+        <v>93300</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="13">
+        <v>143</v>
+      </c>
+      <c r="D5" s="13">
+        <v>72500</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="13">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13">
+        <v>31900</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="13">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13">
+        <v>74900</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="13">
+        <v>224</v>
+      </c>
+      <c r="D8" s="13">
+        <v>65100</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="13">
+        <v>283</v>
+      </c>
+      <c r="D9" s="13">
+        <v>68300</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="13">
+        <v>204</v>
+      </c>
+      <c r="D10" s="13">
+        <v>55900</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="13">
+        <v>215</v>
+      </c>
+      <c r="D11" s="13">
+        <v>62200</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="13">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13">
+        <v>53200</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="13">
+        <v>250</v>
+      </c>
+      <c r="D13" s="13">
+        <v>22500</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="13">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13">
+        <v>30900</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="13">
+        <v>60</v>
+      </c>
+      <c r="D15" s="13">
+        <v>28800</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="13">
+        <v>120</v>
+      </c>
+      <c r="D16" s="13">
+        <v>53700</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="13">
+        <v>101</v>
+      </c>
+      <c r="D17" s="13">
+        <v>54900</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="13">
+        <v>161</v>
+      </c>
+      <c r="D18" s="13">
+        <v>49100</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="13">
+        <v>99</v>
+      </c>
+      <c r="D19" s="13">
+        <v>71400</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="13">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13">
+        <v>62000</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="13">
+        <v>38</v>
+      </c>
+      <c r="D21" s="13">
+        <v>25600</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="13">
+        <v>292</v>
+      </c>
+      <c r="D22" s="13">
+        <v>27600</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="13">
+        <v>223</v>
+      </c>
+      <c r="D23" s="13">
+        <v>28700</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="13">
+        <v>286</v>
+      </c>
+      <c r="D24" s="13">
+        <v>50900</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="13">
+        <v>22</v>
+      </c>
+      <c r="D25" s="13">
+        <v>80900</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="13">
+        <v>115</v>
+      </c>
+      <c r="D26" s="13">
+        <v>70700</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="C27" s="13">
+        <v>289</v>
+      </c>
+      <c r="D27" s="13">
+        <v>93600</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1107,7 +1571,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1118,98 +1582,152 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>48</v>
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>47</v>
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>49</v>
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>57</v>
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>62</v>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>66</v>
       </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>59</v>
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>68</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:A18">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1218,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E4F844-1E9A-4FF4-9017-527FB6BC100E}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1227,223 +1745,224 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13.5" thickBot="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" thickBot="1">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" thickBot="1">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" thickBot="1">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.5" thickBot="1">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.5" thickBot="1">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" thickBot="1">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.5" thickBot="1">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.5" thickBot="1">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.5" thickBot="1">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.5" thickBot="1">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.5" thickBot="1">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" thickBot="1">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" thickBot="1">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" thickBot="1">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" thickBot="1">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" thickBot="1">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" thickBot="1">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" thickBot="1">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" thickBot="1">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" thickBot="1">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.5" thickBot="1">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" thickBot="1">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" thickBot="1">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" thickBot="1">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>36</v>
+      <c r="B27" s="9">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>